--- a/1.xlsx
+++ b/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>名字</t>
   </si>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1433,15 +1433,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1453,6 +1453,9 @@
       </c>
       <c r="D1" t="s">
         <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/1.xlsx
+++ b/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>名字</t>
   </si>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1344,85 +1344,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>90</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45026</v>
-      </c>
-      <c r="F7">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>86</v>
-      </c>
-      <c r="C8">
-        <v>93</v>
-      </c>
-      <c r="D8">
-        <v>92</v>
-      </c>
-      <c r="E8" s="1">
-        <v>45031</v>
-      </c>
-      <c r="F8">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>86</v>
-      </c>
-      <c r="C9">
-        <v>93</v>
-      </c>
-      <c r="D9">
-        <v>92</v>
-      </c>
-      <c r="E9" s="1">
-        <v>45031</v>
-      </c>
-      <c r="F9">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>91</v>
-      </c>
-      <c r="E10" s="1">
-        <v>45033</v>
-      </c>
-      <c r="F10">
-        <v>181</v>
-      </c>
+    <row r="7" spans="5:5">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1433,15 +1365,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1452,136 +1384,429 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
+        <f>SUM(Sheet1!$B$2,Sheet1!$C$2,Sheet1!$D$2)</f>
         <v>270</v>
       </c>
       <c r="C2">
+        <f>Sheet1!$C$2</f>
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <f>Sheet1!$D$2</f>
         <v>90</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <f>Sheet1!$B$2</f>
+        <v>88</v>
+      </c>
+      <c r="G2">
+        <f>Sheet1!$B$2</f>
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <f>Sheet1!$C$2</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="I2">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
+        <f>SUM(Sheet1!$B$3,Sheet1!$C$3,Sheet1!$D$3)</f>
         <v>265</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="E3">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="F3">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="G3">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="I3">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
+        <f>SUM(Sheet1!$B$4,Sheet1!$C$4,Sheet1!$D$4)</f>
         <v>271</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <f>Sheet1!$C$4</f>
+        <v>93</v>
       </c>
       <c r="D4">
+        <f>Sheet1!$D$4</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <f>Sheet1!$B$4</f>
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <f>Sheet1!$B$4</f>
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <f>Sheet1!$C$4</f>
+        <v>93</v>
+      </c>
+      <c r="I4">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
+        <f>SUM(Sheet1!$B$5,Sheet1!$C$5,Sheet1!$D$5)</f>
         <v>181</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <f>Sheet1!$C$5</f>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+      <c r="E5">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <f>Sheet1!$B$5</f>
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <f>Sheet1!$B$5</f>
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <f>Sheet1!$C$5</f>
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
+        <f>SUM(Sheet1!$B$6,Sheet1!$C$6,Sheet1!$D$6)</f>
         <v>262</v>
       </c>
       <c r="C6">
+        <f>Sheet1!$C$6</f>
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <f>Sheet1!$B$6</f>
         <v>90</v>
       </c>
-      <c r="D6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6">
+        <f>Sheet1!$B$6</f>
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <f>Sheet1!$C$6</f>
+        <v>87</v>
+      </c>
+      <c r="I6">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <f>SUM(Sheet1!$B$2,Sheet1!$C$2,Sheet1!$D$2)</f>
         <v>270</v>
       </c>
       <c r="C7">
+        <f>Sheet1!$C$2</f>
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <f>Sheet1!$D$2</f>
         <v>90</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <f>Sheet1!$B$2</f>
+        <v>88</v>
+      </c>
+      <c r="G7">
+        <f>Sheet1!$B$2</f>
+        <v>88</v>
+      </c>
+      <c r="H7">
+        <f>Sheet1!$C$2</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="I7">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <f>SUM(Sheet1!$B$3,Sheet1!$C$3,Sheet1!$D$3)</f>
         <v>265</v>
       </c>
       <c r="C8">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="F8">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="G8">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="I8">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f>SUM(Sheet1!$B$6,Sheet1!$C$6,Sheet1!$D$6)</f>
+        <v>262</v>
+      </c>
+      <c r="C9">
+        <f>Sheet1!$C$6</f>
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+      <c r="F9">
+        <f>Sheet1!$B$6</f>
         <v>90</v>
       </c>
-      <c r="D8">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>265</v>
-      </c>
-      <c r="C9">
+      <c r="G9">
+        <f>Sheet1!$B$6</f>
         <v>90</v>
       </c>
-      <c r="D9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="H9">
+        <f>Sheet1!$C$6</f>
+        <v>87</v>
+      </c>
+      <c r="I9">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <f>SUM(Sheet1!$B$5,Sheet1!$C$5,Sheet1!$D$5)</f>
         <v>181</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <f>Sheet1!$C$5</f>
+        <v>30</v>
       </c>
       <c r="D10">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+      <c r="E10">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <f>Sheet1!$B$5</f>
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <f>Sheet1!$B$5</f>
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <f>Sheet1!$C$5</f>
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>SUM(Sheet1!$B$4,Sheet1!$C$4,Sheet1!$D$4)</f>
+        <v>271</v>
+      </c>
+      <c r="C11">
+        <f>Sheet1!$C$4</f>
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <f>Sheet1!$D$4</f>
         <v>92</v>
+      </c>
+      <c r="E11">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+      <c r="F11">
+        <f>Sheet1!$B$4</f>
+        <v>86</v>
+      </c>
+      <c r="G11">
+        <f>Sheet1!$B$4</f>
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <f>Sheet1!$C$4</f>
+        <v>93</v>
+      </c>
+      <c r="I11">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <f>SUM(Sheet1!$B$3,Sheet1!$C$3,Sheet1!$D$3)</f>
+        <v>265</v>
+      </c>
+      <c r="C12">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="G12">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="I12">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C2" sqref="C2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1402,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1410,36 +1410,8 @@
         <f>SUM(Sheet1!$B$2,Sheet1!$C$2,Sheet1!$D$2)</f>
         <v>270</v>
       </c>
-      <c r="C2">
-        <f>Sheet1!$C$2</f>
-        <v>92</v>
-      </c>
-      <c r="D2">
-        <f>Sheet1!$D$2</f>
-        <v>90</v>
-      </c>
-      <c r="E2">
-        <f>Sheet1!$D$2</f>
-        <v>90</v>
-      </c>
-      <c r="F2">
-        <f>Sheet1!$B$2</f>
-        <v>88</v>
-      </c>
-      <c r="G2">
-        <f>Sheet1!$B$2</f>
-        <v>88</v>
-      </c>
-      <c r="H2">
-        <f>Sheet1!$C$2</f>
-        <v>92</v>
-      </c>
-      <c r="I2">
-        <f>Sheet1!$D$2</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1447,36 +1419,8 @@
         <f>SUM(Sheet1!$B$3,Sheet1!$C$3,Sheet1!$D$3)</f>
         <v>265</v>
       </c>
-      <c r="C3">
-        <f>Sheet1!$C$3</f>
-        <v>85</v>
-      </c>
-      <c r="D3">
-        <f>Sheet1!$D$3</f>
-        <v>89</v>
-      </c>
-      <c r="E3">
-        <f>Sheet1!$D$3</f>
-        <v>89</v>
-      </c>
-      <c r="F3">
-        <f>Sheet1!$B$3</f>
-        <v>91</v>
-      </c>
-      <c r="G3">
-        <f>Sheet1!$B$3</f>
-        <v>91</v>
-      </c>
-      <c r="H3">
-        <f>Sheet1!$C$3</f>
-        <v>85</v>
-      </c>
-      <c r="I3">
-        <f>Sheet1!$D$3</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1484,36 +1428,8 @@
         <f>SUM(Sheet1!$B$4,Sheet1!$C$4,Sheet1!$D$4)</f>
         <v>271</v>
       </c>
-      <c r="C4">
-        <f>Sheet1!$C$4</f>
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <f>Sheet1!$D$4</f>
-        <v>92</v>
-      </c>
-      <c r="E4">
-        <f>Sheet1!$D$4</f>
-        <v>92</v>
-      </c>
-      <c r="F4">
-        <f>Sheet1!$B$4</f>
-        <v>86</v>
-      </c>
-      <c r="G4">
-        <f>Sheet1!$B$4</f>
-        <v>86</v>
-      </c>
-      <c r="H4">
-        <f>Sheet1!$C$4</f>
-        <v>93</v>
-      </c>
-      <c r="I4">
-        <f>Sheet1!$D$4</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1521,36 +1437,8 @@
         <f>SUM(Sheet1!$B$5,Sheet1!$C$5,Sheet1!$D$5)</f>
         <v>181</v>
       </c>
-      <c r="C5">
-        <f>Sheet1!$C$5</f>
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <f>Sheet1!$D$5</f>
-        <v>91</v>
-      </c>
-      <c r="E5">
-        <f>Sheet1!$D$5</f>
-        <v>91</v>
-      </c>
-      <c r="F5">
-        <f>Sheet1!$B$5</f>
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <f>Sheet1!$B$5</f>
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <f>Sheet1!$C$5</f>
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <f>Sheet1!$D$5</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1558,36 +1446,8 @@
         <f>SUM(Sheet1!$B$6,Sheet1!$C$6,Sheet1!$D$6)</f>
         <v>262</v>
       </c>
-      <c r="C6">
-        <f>Sheet1!$C$6</f>
-        <v>87</v>
-      </c>
-      <c r="D6">
-        <f>Sheet1!$D$6</f>
-        <v>85</v>
-      </c>
-      <c r="E6">
-        <f>Sheet1!$D$6</f>
-        <v>85</v>
-      </c>
-      <c r="F6">
-        <f>Sheet1!$B$6</f>
-        <v>90</v>
-      </c>
-      <c r="G6">
-        <f>Sheet1!$B$6</f>
-        <v>90</v>
-      </c>
-      <c r="H6">
-        <f>Sheet1!$C$6</f>
-        <v>87</v>
-      </c>
-      <c r="I6">
-        <f>Sheet1!$D$6</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1595,36 +1455,8 @@
         <f>SUM(Sheet1!$B$2,Sheet1!$C$2,Sheet1!$D$2)</f>
         <v>270</v>
       </c>
-      <c r="C7">
-        <f>Sheet1!$C$2</f>
-        <v>92</v>
-      </c>
-      <c r="D7">
-        <f>Sheet1!$D$2</f>
-        <v>90</v>
-      </c>
-      <c r="E7">
-        <f>Sheet1!$D$2</f>
-        <v>90</v>
-      </c>
-      <c r="F7">
-        <f>Sheet1!$B$2</f>
-        <v>88</v>
-      </c>
-      <c r="G7">
-        <f>Sheet1!$B$2</f>
-        <v>88</v>
-      </c>
-      <c r="H7">
-        <f>Sheet1!$C$2</f>
-        <v>92</v>
-      </c>
-      <c r="I7">
-        <f>Sheet1!$D$2</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1632,36 +1464,8 @@
         <f>SUM(Sheet1!$B$3,Sheet1!$C$3,Sheet1!$D$3)</f>
         <v>265</v>
       </c>
-      <c r="C8">
-        <f>Sheet1!$C$3</f>
-        <v>85</v>
-      </c>
-      <c r="D8">
-        <f>Sheet1!$D$3</f>
-        <v>89</v>
-      </c>
-      <c r="E8">
-        <f>Sheet1!$D$3</f>
-        <v>89</v>
-      </c>
-      <c r="F8">
-        <f>Sheet1!$B$3</f>
-        <v>91</v>
-      </c>
-      <c r="G8">
-        <f>Sheet1!$B$3</f>
-        <v>91</v>
-      </c>
-      <c r="H8">
-        <f>Sheet1!$C$3</f>
-        <v>85</v>
-      </c>
-      <c r="I8">
-        <f>Sheet1!$D$3</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1669,36 +1473,8 @@
         <f>SUM(Sheet1!$B$6,Sheet1!$C$6,Sheet1!$D$6)</f>
         <v>262</v>
       </c>
-      <c r="C9">
-        <f>Sheet1!$C$6</f>
-        <v>87</v>
-      </c>
-      <c r="D9">
-        <f>Sheet1!$D$6</f>
-        <v>85</v>
-      </c>
-      <c r="E9">
-        <f>Sheet1!$D$6</f>
-        <v>85</v>
-      </c>
-      <c r="F9">
-        <f>Sheet1!$B$6</f>
-        <v>90</v>
-      </c>
-      <c r="G9">
-        <f>Sheet1!$B$6</f>
-        <v>90</v>
-      </c>
-      <c r="H9">
-        <f>Sheet1!$C$6</f>
-        <v>87</v>
-      </c>
-      <c r="I9">
-        <f>Sheet1!$D$6</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1706,36 +1482,8 @@
         <f>SUM(Sheet1!$B$5,Sheet1!$C$5,Sheet1!$D$5)</f>
         <v>181</v>
       </c>
-      <c r="C10">
-        <f>Sheet1!$C$5</f>
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <f>Sheet1!$D$5</f>
-        <v>91</v>
-      </c>
-      <c r="E10">
-        <f>Sheet1!$D$5</f>
-        <v>91</v>
-      </c>
-      <c r="F10">
-        <f>Sheet1!$B$5</f>
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <f>Sheet1!$B$5</f>
-        <v>60</v>
-      </c>
-      <c r="H10">
-        <f>Sheet1!$C$5</f>
-        <v>30</v>
-      </c>
-      <c r="I10">
-        <f>Sheet1!$D$5</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1743,70 +1491,14 @@
         <f>SUM(Sheet1!$B$4,Sheet1!$C$4,Sheet1!$D$4)</f>
         <v>271</v>
       </c>
-      <c r="C11">
-        <f>Sheet1!$C$4</f>
-        <v>93</v>
-      </c>
-      <c r="D11">
-        <f>Sheet1!$D$4</f>
-        <v>92</v>
-      </c>
-      <c r="E11">
-        <f>Sheet1!$D$4</f>
-        <v>92</v>
-      </c>
-      <c r="F11">
-        <f>Sheet1!$B$4</f>
-        <v>86</v>
-      </c>
-      <c r="G11">
-        <f>Sheet1!$B$4</f>
-        <v>86</v>
-      </c>
-      <c r="H11">
-        <f>Sheet1!$C$4</f>
-        <v>93</v>
-      </c>
-      <c r="I11">
-        <f>Sheet1!$D$4</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
         <f>SUM(Sheet1!$B$3,Sheet1!$C$3,Sheet1!$D$3)</f>
         <v>265</v>
-      </c>
-      <c r="C12">
-        <f>Sheet1!$C$3</f>
-        <v>85</v>
-      </c>
-      <c r="D12">
-        <f>Sheet1!$D$3</f>
-        <v>89</v>
-      </c>
-      <c r="E12">
-        <f>Sheet1!$D$3</f>
-        <v>89</v>
-      </c>
-      <c r="F12">
-        <f>Sheet1!$B$3</f>
-        <v>91</v>
-      </c>
-      <c r="G12">
-        <f>Sheet1!$B$3</f>
-        <v>91</v>
-      </c>
-      <c r="H12">
-        <f>Sheet1!$C$3</f>
-        <v>85</v>
-      </c>
-      <c r="I12">
-        <f>Sheet1!$D$3</f>
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="11145" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1402,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1410,95 +1410,373 @@
         <f>SUM(Sheet1!$B$2,Sheet1!$C$2,Sheet1!$D$2)</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>Sheet1!$C$2</f>
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <f>Sheet1!$B$2</f>
+        <v>88</v>
+      </c>
+      <c r="G2">
+        <f>Sheet1!$B$2</f>
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <f>Sheet1!$C$2</f>
+        <v>92</v>
+      </c>
+      <c r="I2">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <f>SUM(Sheet1!$B$3,Sheet1!$C$3,Sheet1!$D$3)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3"/>
+      <c r="C3">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="E3">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="F3">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="G3">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="I3">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <f>SUM(Sheet1!$B$4,Sheet1!$C$4,Sheet1!$D$4)</f>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4"/>
+      <c r="C4">
+        <f>Sheet1!$C$4</f>
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <f>Sheet1!$B$4</f>
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <f>Sheet1!$B$4</f>
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <f>Sheet1!$C$4</f>
+        <v>93</v>
+      </c>
+      <c r="I4">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <f>SUM(Sheet1!$B$5,Sheet1!$C$5,Sheet1!$D$5)</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5"/>
+      <c r="C5">
+        <f>Sheet1!$C$5</f>
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+      <c r="E5">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <f>Sheet1!$B$5</f>
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <f>Sheet1!$B$5</f>
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <f>Sheet1!$C$5</f>
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <f>SUM(Sheet1!$B$6,Sheet1!$C$6,Sheet1!$D$6)</f>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6"/>
+      <c r="C6">
+        <f>Sheet1!$C$6</f>
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <f>Sheet1!$B$6</f>
+        <v>90</v>
+      </c>
+      <c r="G6">
+        <f>Sheet1!$B$6</f>
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <f>Sheet1!$C$6</f>
+        <v>87</v>
+      </c>
+      <c r="I6">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <f>SUM(Sheet1!$B$2,Sheet1!$C$2,Sheet1!$D$2)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7"/>
+      <c r="C7">
+        <f>Sheet1!$C$2</f>
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <f>Sheet1!$B$2</f>
+        <v>88</v>
+      </c>
+      <c r="G7">
+        <f>Sheet1!$B$2</f>
+        <v>88</v>
+      </c>
+      <c r="H7">
+        <f>Sheet1!$C$2</f>
+        <v>92</v>
+      </c>
+      <c r="I7">
+        <f>Sheet1!$D$2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <f>SUM(Sheet1!$B$3,Sheet1!$C$3,Sheet1!$D$3)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8"/>
+      <c r="C8">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="F8">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="G8">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="I8">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <f>SUM(Sheet1!$B$6,Sheet1!$C$6,Sheet1!$D$6)</f>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9"/>
+      <c r="C9">
+        <f>Sheet1!$C$6</f>
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+      <c r="F9">
+        <f>Sheet1!$B$6</f>
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <f>Sheet1!$B$6</f>
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <f>Sheet1!$C$6</f>
+        <v>87</v>
+      </c>
+      <c r="I9">
+        <f>Sheet1!$D$6</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <f>SUM(Sheet1!$B$5,Sheet1!$C$5,Sheet1!$D$5)</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10"/>
+      <c r="C10">
+        <f>Sheet1!$C$5</f>
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+      <c r="E10">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <f>Sheet1!$B$5</f>
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <f>Sheet1!$B$5</f>
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <f>Sheet1!$C$5</f>
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <f>Sheet1!$D$5</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <f>SUM(Sheet1!$B$4,Sheet1!$C$4,Sheet1!$D$4)</f>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11"/>
+      <c r="C11">
+        <f>Sheet1!$C$4</f>
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+      <c r="E11">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+      <c r="F11">
+        <f>Sheet1!$B$4</f>
+        <v>86</v>
+      </c>
+      <c r="G11">
+        <f>Sheet1!$B$4</f>
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <f>Sheet1!$C$4</f>
+        <v>93</v>
+      </c>
+      <c r="I11">
+        <f>Sheet1!$D$4</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
-        <f>SUM(Sheet1!$B$3,Sheet1!$C$3,Sheet1!$D$3)</f>
-        <v>265</v>
+      <c r="B12"/>
+      <c r="C12">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="G12">
+        <f>Sheet1!$B$3</f>
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <f>Sheet1!$C$3</f>
+        <v>85</v>
+      </c>
+      <c r="I12">
+        <f>Sheet1!$D$3</f>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
